--- a/data/input/coculture_validation/cocul_validation_OD_laracocultures.xlsx
+++ b/data/input/coculture_validation/cocul_validation_OD_laracocultures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aulakhs/Documents/Ralser Lab/Collaborations/Auxotroph co culture screen/data/input/coculture_validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FCF620-5B92-C144-9A9A-B0F02BC4027C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8461F1F0-B74D-3644-9608-F123A273C1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14260" windowHeight="16520" xr2:uid="{901CE789-1495-D444-B2D3-71F96771B193}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25060" windowHeight="16480" xr2:uid="{901CE789-1495-D444-B2D3-71F96771B193}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="58">
   <si>
     <t>BY4741 pHLUM</t>
   </si>
@@ -180,15 +180,6 @@
     <t>cultype</t>
   </si>
   <si>
-    <t>monocul1</t>
-  </si>
-  <si>
-    <t>monocul2</t>
-  </si>
-  <si>
-    <t>cocul</t>
-  </si>
-  <si>
     <t>met14Δ-met5Δ</t>
   </si>
   <si>
@@ -199,6 +190,24 @@
   </si>
   <si>
     <t>met14Δ-arg2Δ COLLECTION</t>
+  </si>
+  <si>
+    <t>monocul1 library</t>
+  </si>
+  <si>
+    <t>monocul2 library</t>
+  </si>
+  <si>
+    <t>monocul1 remade</t>
+  </si>
+  <si>
+    <t>monocul2 remade</t>
+  </si>
+  <si>
+    <t>cocul library</t>
+  </si>
+  <si>
+    <t>cocul remade</t>
   </si>
 </sst>
 </file>
@@ -575,14 +584,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB75011-B433-D649-A07E-B64EDA741CC8}">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -662,7 +672,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>0.10696</v>
@@ -682,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>0.21301999999999999</v>
@@ -702,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>0.19264875000000001</v>
@@ -722,7 +732,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>0.22232750000000001</v>
@@ -742,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>0.53385125</v>
@@ -762,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>0.41941250000000002</v>
@@ -782,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>0.27942125000000001</v>
@@ -802,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>0.20185249999999999</v>
@@ -822,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D12">
         <v>0.25281749999999997</v>
@@ -842,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>0.19273499999999999</v>
@@ -862,7 +872,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D14">
         <v>0.51777375000000003</v>
@@ -882,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D15">
         <v>0.53721750000000001</v>
@@ -902,7 +912,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D16">
         <v>0.20783874999999999</v>
@@ -922,7 +932,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>0.21699750000000001</v>
@@ -942,7 +952,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D18">
         <v>0.13609125</v>
@@ -962,7 +972,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>0.14520250000000001</v>
@@ -982,7 +992,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>0.62128375000000002</v>
@@ -1002,7 +1012,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>0.60941749999999995</v>
@@ -1019,10 +1029,10 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D22">
         <v>0.18913625000000001</v>
@@ -1039,10 +1049,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <v>0.22912250000000001</v>
@@ -1059,10 +1069,10 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D24">
         <v>0.22501375000000001</v>
@@ -1079,10 +1089,10 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D25">
         <v>0.22280749999999999</v>
@@ -1096,13 +1106,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D26">
         <v>0.52750874999999997</v>
@@ -1116,13 +1126,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D27">
         <v>0.52991750000000004</v>
@@ -1142,7 +1152,7 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D28">
         <v>0.13183875</v>
@@ -1162,7 +1172,7 @@
         <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D29">
         <v>0.21644749999999999</v>
@@ -1182,7 +1192,7 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D30">
         <v>0.18335750000000001</v>
@@ -1202,7 +1212,7 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D31">
         <v>0.18115500000000001</v>
@@ -1222,7 +1232,7 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D32">
         <v>0.28016000000000002</v>
@@ -1242,7 +1252,7 @@
         <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D33">
         <v>0.37996000000000002</v>
@@ -1262,7 +1272,7 @@
         <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D34">
         <v>0.25270999999999999</v>
@@ -1282,7 +1292,7 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D35">
         <v>0.25528250000000002</v>
@@ -1302,7 +1312,7 @@
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D36">
         <v>0.15762499999999999</v>
@@ -1322,7 +1332,7 @@
         <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D37">
         <v>0.21094750000000001</v>
@@ -1342,7 +1352,7 @@
         <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D38">
         <v>0.3558075</v>
@@ -1362,7 +1372,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D39">
         <v>0.39960499999999999</v>
@@ -1382,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D40">
         <v>0.186</v>
@@ -1405,7 +1415,7 @@
         <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D41">
         <v>0.29499999999999998</v>
@@ -1428,7 +1438,7 @@
         <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D42">
         <v>0.20300000000000001</v>
@@ -1451,7 +1461,7 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D43">
         <v>8.8999999999999996E-2</v>
@@ -1474,7 +1484,7 @@
         <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D44">
         <v>0.49099999999999999</v>
@@ -1497,7 +1507,7 @@
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D45">
         <v>0.56499999999999995</v>
@@ -1520,7 +1530,7 @@
         <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D46">
         <v>0.16700000000000001</v>
@@ -1543,7 +1553,7 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D47">
         <v>4.9000000000000002E-2</v>
@@ -1566,7 +1576,7 @@
         <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D48">
         <v>0.13900000000000001</v>
@@ -1589,7 +1599,7 @@
         <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D49">
         <v>0.13</v>
@@ -1612,7 +1622,7 @@
         <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D50">
         <v>0.57299999999999995</v>
@@ -1635,7 +1645,7 @@
         <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D51">
         <v>0.622</v>
@@ -1655,10 +1665,10 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D52">
         <v>0.20699999999999999</v>
@@ -1678,10 +1688,10 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D53">
         <v>0.26600000000000001</v>
@@ -1701,10 +1711,10 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" t="s">
         <v>53</v>
-      </c>
-      <c r="C54" t="s">
-        <v>49</v>
       </c>
       <c r="D54">
         <v>0.126</v>
@@ -1724,10 +1734,10 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D55">
         <v>0.249</v>
@@ -1744,13 +1754,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D56">
         <v>0.54600000000000004</v>
@@ -1767,13 +1777,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D57">
         <v>0.58899999999999997</v>
@@ -1796,7 +1806,7 @@
         <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D58">
         <v>0.314</v>
@@ -1819,7 +1829,7 @@
         <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D59">
         <v>0.05</v>
@@ -1842,7 +1852,7 @@
         <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D60">
         <v>0.17199999999999999</v>
@@ -1865,7 +1875,7 @@
         <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D61">
         <v>5.7000000000000002E-2</v>
@@ -1888,7 +1898,7 @@
         <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D62">
         <v>0.58199999999999996</v>
@@ -1911,7 +1921,7 @@
         <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D63">
         <v>0.29799999999999999</v>
@@ -1934,7 +1944,7 @@
         <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D64">
         <v>0.17499999999999999</v>
@@ -1957,7 +1967,7 @@
         <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D65">
         <v>0.21299999999999999</v>
@@ -1980,7 +1990,7 @@
         <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D66">
         <v>6.7000000000000004E-2</v>
@@ -2003,7 +2013,7 @@
         <v>35</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D67">
         <v>9.1999999999999998E-2</v>
@@ -2026,7 +2036,7 @@
         <v>35</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D68">
         <v>0.67700000000000005</v>
@@ -2049,7 +2059,7 @@
         <v>35</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D69">
         <v>0.72799999999999998</v>
@@ -2072,7 +2082,7 @@
         <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D70">
         <v>0.113</v>
@@ -2095,7 +2105,7 @@
         <v>38</v>
       </c>
       <c r="C71" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D71">
         <v>8.3000000000000004E-2</v>
@@ -2118,7 +2128,7 @@
         <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D72">
         <v>7.9000000000000001E-2</v>
@@ -2141,7 +2151,7 @@
         <v>38</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D73">
         <v>7.1999999999999995E-2</v>
@@ -2164,7 +2174,7 @@
         <v>38</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D74">
         <v>0.78900000000000003</v>
@@ -2187,7 +2197,7 @@
         <v>38</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D75">
         <v>0.71399999999999997</v>
